--- a/me/4.Gradle-Properties.xlsx
+++ b/me/4.Gradle-Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60A773-6601-4083-AA0C-2290318E1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17591366-46C5-4020-9E6E-C87F15FCFEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>構成</t>
   </si>
@@ -231,6 +231,15 @@
       </rPr>
       <t>.gradle.hasProperty('timestamp')</t>
     </r>
+  </si>
+  <si>
+    <t>Check by esclipse</t>
+  </si>
+  <si>
+    <t>Check by command</t>
+  </si>
+  <si>
+    <t>gradle project -i</t>
   </si>
 </sst>
 </file>
@@ -359,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -371,11 +380,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,15 +494,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>79562</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,8 +531,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="19183349"/>
-          <a:ext cx="11144250" cy="5572125"/>
+          <a:off x="684680" y="19463496"/>
+          <a:ext cx="11063567" cy="5572125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>17392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F49A65-F298-1AF0-183E-C846A23E85C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="26031266"/>
+          <a:ext cx="11161058" cy="5799626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,16 +851,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:T99"/>
+  <dimension ref="A3:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V120" sqref="V120"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W132" sqref="W132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="3"/>
@@ -831,551 +883,109 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
       <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
       <c r="T14" s="6"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
       <c r="T16" s="6"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
       <c r="T17" s="6"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
       <c r="T20" s="6"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
       <c r="T21" s="6"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
       <c r="T22" s="6"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
       <c r="T24" s="6"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
       <c r="T25" s="6"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
       <c r="T26" s="6"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
       <c r="T27" s="6"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
       <c r="T29" s="6"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -1460,7 +1070,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="6"/>
@@ -1591,24 +1201,12 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
       <c r="I63" s="6"/>
       <c r="J63" t="s">
         <v>17</v>
@@ -1619,12 +1217,6 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
       <c r="I64" s="6"/>
       <c r="K64" t="s">
         <v>44</v>
@@ -1634,34 +1226,16 @@
       <c r="B65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
       <c r="I67" s="6"/>
       <c r="J67" t="s">
         <v>17</v>
@@ -1674,104 +1248,50 @@
       <c r="B68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
       <c r="I76" s="6"/>
       <c r="J76" t="s">
         <v>17</v>
@@ -1784,14 +1304,8 @@
       <c r="B77" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
       <c r="I77" s="6"/>
-      <c r="K77" s="13" t="s">
+      <c r="K77" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1799,58 +1313,28 @@
       <c r="B78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
       <c r="I82" s="6"/>
       <c r="J82" t="s">
         <v>17</v>
@@ -1863,82 +1347,40 @@
       <c r="B83" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
       <c r="I89" s="6"/>
       <c r="J89" t="s">
         <v>17</v>
@@ -1951,82 +1393,40 @@
       <c r="B90" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
       <c r="I96" s="6"/>
       <c r="J96" t="s">
         <v>17</v>
@@ -2035,31 +1435,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -2071,6 +1459,1442 @@
       <c r="H99" s="9"/>
       <c r="I99" s="10"/>
     </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="4"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+      <c r="R103" s="14"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+      <c r="R104" s="14"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14"/>
+      <c r="R116" s="14"/>
+      <c r="S116" s="14"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14"/>
+      <c r="R117" s="14"/>
+      <c r="S117" s="14"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="14"/>
+      <c r="R119" s="14"/>
+      <c r="S119" s="14"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="14"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="14"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="14"/>
+      <c r="Q121" s="14"/>
+      <c r="R121" s="14"/>
+      <c r="S121" s="14"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
+      <c r="R122" s="14"/>
+      <c r="S122" s="14"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="14"/>
+      <c r="R123" s="14"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="14"/>
+      <c r="R124" s="14"/>
+      <c r="S124" s="14"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="14"/>
+      <c r="R125" s="14"/>
+      <c r="S125" s="14"/>
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="14"/>
+      <c r="R126" s="14"/>
+      <c r="S126" s="14"/>
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
+      <c r="R127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+      <c r="R130" s="14"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="14"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="6"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="10"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="6"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+      <c r="R138" s="14"/>
+      <c r="S138" s="14"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14"/>
+      <c r="S140" s="14"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+      <c r="R141" s="14"/>
+      <c r="S141" s="14"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="14"/>
+      <c r="P142" s="14"/>
+      <c r="Q142" s="14"/>
+      <c r="R142" s="14"/>
+      <c r="S142" s="14"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+      <c r="R143" s="14"/>
+      <c r="S143" s="14"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+      <c r="R144" s="14"/>
+      <c r="S144" s="14"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+      <c r="R145" s="14"/>
+      <c r="S145" s="14"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+      <c r="R146" s="14"/>
+      <c r="S146" s="14"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="14"/>
+      <c r="S147" s="14"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+      <c r="R148" s="14"/>
+      <c r="S148" s="14"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="14"/>
+      <c r="S149" s="14"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+      <c r="R151" s="14"/>
+      <c r="S151" s="14"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+      <c r="R152" s="14"/>
+      <c r="S152" s="14"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+      <c r="R153" s="14"/>
+      <c r="S153" s="14"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+      <c r="R154" s="14"/>
+      <c r="S154" s="14"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+      <c r="R155" s="14"/>
+      <c r="S155" s="14"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+      <c r="R156" s="14"/>
+      <c r="S156" s="14"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="14"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+      <c r="R157" s="14"/>
+      <c r="S157" s="14"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+      <c r="R158" s="14"/>
+      <c r="S158" s="14"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="14"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14"/>
+      <c r="O159" s="14"/>
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+      <c r="R159" s="14"/>
+      <c r="S159" s="14"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="14"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+      <c r="R160" s="14"/>
+      <c r="S160" s="14"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="14"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+      <c r="R161" s="14"/>
+      <c r="S161" s="14"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="14"/>
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+      <c r="R162" s="14"/>
+      <c r="S162" s="14"/>
+      <c r="T162" s="6"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14"/>
+      <c r="O163" s="14"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+      <c r="R163" s="14"/>
+      <c r="S163" s="14"/>
+      <c r="T163" s="6"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="14"/>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14"/>
+      <c r="N164" s="14"/>
+      <c r="O164" s="14"/>
+      <c r="P164" s="14"/>
+      <c r="Q164" s="14"/>
+      <c r="R164" s="14"/>
+      <c r="S164" s="14"/>
+      <c r="T164" s="6"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="14"/>
+      <c r="K165" s="14"/>
+      <c r="L165" s="14"/>
+      <c r="M165" s="14"/>
+      <c r="N165" s="14"/>
+      <c r="O165" s="14"/>
+      <c r="P165" s="14"/>
+      <c r="Q165" s="14"/>
+      <c r="R165" s="14"/>
+      <c r="S165" s="14"/>
+      <c r="T165" s="6"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14"/>
+      <c r="O166" s="14"/>
+      <c r="P166" s="14"/>
+      <c r="Q166" s="14"/>
+      <c r="R166" s="14"/>
+      <c r="S166" s="14"/>
+      <c r="T166" s="6"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="14"/>
+      <c r="Q167" s="14"/>
+      <c r="R167" s="14"/>
+      <c r="S167" s="14"/>
+      <c r="T167" s="6"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
+      <c r="Q168" s="9"/>
+      <c r="R168" s="9"/>
+      <c r="S168" s="9"/>
+      <c r="T168" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
